--- a/Mental_04 (1).xlsx
+++ b/Mental_04 (1).xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52744\Documents\MateriasOtoño2020\CIENCIA DE DATOS\PROYECTO FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE9DCA6-B43C-4BE4-949D-7034C7EB16BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C21F6-604D-46FC-A2A1-DC7646FCA775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabulado" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="62">
   <si>
     <t>Integrantes del hogar de 7 años y más por entidad federativa según sexo y sentimientos de depresión, 2014, 2015 y 2017</t>
   </si>
@@ -205,6 +209,21 @@
   <si>
     <t>Ambos</t>
   </si>
+  <si>
+    <t>(Todas)</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Suma de Porcentaje</t>
+  </si>
 </sst>
 </file>
 
@@ -284,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -311,6 +330,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -326,6 +350,6534 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="52744" refreshedDate="44165.873935648146" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="892" xr:uid="{B8C9CF94-17F5-48EF-B35F-138248E0FB44}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E1048576" sheet="Hoja1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Sentimiento" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Se han sentido deprimidos"/>
+        <s v="Nunca se han sentido deprimidos"/>
+        <s v="No saben si se han sentido deprimidos"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Estado" numFmtId="0">
+      <sharedItems containsBlank="1" count="34">
+        <s v="Estados Unidos Mexicanos"/>
+        <s v="Aguascalientes"/>
+        <s v="Baja California"/>
+        <s v="Baja California Sur"/>
+        <s v="Campeche"/>
+        <s v="Coahuila de Zaragoza"/>
+        <s v="Colima"/>
+        <s v="Chiapas"/>
+        <s v="Chihuahua"/>
+        <s v="Ciudad de México"/>
+        <s v="Durango"/>
+        <s v="Guanajuato"/>
+        <s v="Guerrero"/>
+        <s v="Hidalgo"/>
+        <s v="Jalisco"/>
+        <s v="México"/>
+        <s v="Michoacán de Ocampo"/>
+        <s v="Morelos"/>
+        <s v="Nayarit"/>
+        <s v="Nuevo León"/>
+        <s v="Oaxaca"/>
+        <s v="Puebla"/>
+        <s v="Querétaro"/>
+        <s v="Quintana Roo"/>
+        <s v="San Luis Potosí"/>
+        <s v="Sinaloa"/>
+        <s v="Sonora"/>
+        <s v="Tabasco"/>
+        <s v="Tamaulipas"/>
+        <s v="Tlaxcala"/>
+        <s v="Veracruz de Ignacio de la Llave"/>
+        <s v="Yucatán"/>
+        <s v="Zacatecas"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Año" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2014" maxValue="2017" count="4">
+        <n v="2014"/>
+        <n v="2015"/>
+        <n v="2017"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Porcentaje" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="93.8"/>
+    </cacheField>
+    <cacheField name="Genero" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Ambos"/>
+        <s v="Hombres"/>
+        <s v="Mujeres"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="892">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="33.200000000000003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="17.899999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="21.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="36.799999999999997"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="22.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="34.700000000000003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="15.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="30.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="29.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="42.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="44.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="22.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="41.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="37"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="28.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="33.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="40.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="41.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="18.600000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="42"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="40.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="20.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="12.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="20.399999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="39.299999999999997"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="30.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="38.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="18.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="27.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="36.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="43.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="31.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="52.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="66.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="82.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="62.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="77.099999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="65.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="84.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="68.099999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="70.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="56.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="55.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="77.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="58.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="62.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="71.099999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="66.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="59.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="58.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="81.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="57.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="59.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="78.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="87"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="79.400000000000006"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="60.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="69.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="61.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="72.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="63.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="55.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="68.400000000000006"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="47.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="1.1000000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="1.1000000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="0.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="0.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="0.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="28.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="18.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="31.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="18.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="31.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="12.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="27.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="24.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="36.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="39.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="19.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="36.200000000000003"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="32.9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="23"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="30.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="34.799999999999997"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="35.9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="13.9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="36.200000000000003"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="36.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="18.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="10.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="17.899999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="33.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="23.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="32.200000000000003"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="13.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="22.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="32.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="37.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="25.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="46.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="71"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="85"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="81.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="68"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="81.099999999999994"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="68.900000000000006"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="87.9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="70.900000000000006"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="75.599999999999994"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="62.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="60.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="80.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="63.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="66.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="76.599999999999994"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="69.400000000000006"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="65.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="64.099999999999994"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="86"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="63.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="63.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="81.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="89.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="81.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="66.599999999999994"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="76.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="67.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="85.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="77.400000000000006"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="67.099999999999994"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="61.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="74.099999999999994"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="52.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="1.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="1.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="0.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="0.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="0.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="1.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="37.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="20.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="25.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="42.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="26.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="38.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="19"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="33.799999999999997"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="34.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="47.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="49.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="25.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="45.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="40.700000000000003"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="33.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="36.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="45.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="45.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="23.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="47.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="44.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="23.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="15.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="22.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="44.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="36.299999999999997"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="44.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="23.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="32.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="40.299999999999997"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="49.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="37"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="57.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="62.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="79.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="74.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="56.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="73.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="61.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="81"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="65.400000000000006"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="65.400000000000006"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="51.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="50.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="74.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="54"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="59"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="65.900000000000006"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="63.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="54.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="54.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="76.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="52.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="55.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="76.400000000000006"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="84.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="77"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="63.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="55.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="76.599999999999994"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="67.599999999999994"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="59.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="50.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="63"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="42.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="0.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="0.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="0.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="27.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="8.8000000000000007"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="17.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="24.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="23.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="26.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="19.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="21.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="23.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="36.700000000000003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="44.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="10.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="41.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="35.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="21.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="24.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="49.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="37.799999999999997"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="24.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="34.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="36.200000000000003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="19.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="15.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="13.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="30.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="9.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="42.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="16"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="28.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="44.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="32.299999999999997"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="28.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+    <x v="1"/>
+    <n v="42.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="91.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="82.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="75.900000000000006"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="73.599999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="80.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="77.900000000000006"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="76.099999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="62.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="55.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="89.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="57.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="64.400000000000006"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="78.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="75.599999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="50"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="62.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="75.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="65.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="63.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="79.900000000000006"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="84.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="86.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="69.099999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="90.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="57.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="83.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="71.400000000000006"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="55.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="66.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="71.099999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="32"/>
+    <x v="1"/>
+    <n v="57.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.1000000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="0.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="0.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="0.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="0.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="0.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="0.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="1.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="32"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="23.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="14.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="21.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="20"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="22.9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="14.9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="18.600000000000001"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="19.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="31.9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="38.200000000000003"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="7.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="36.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="31"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="16.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="20.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="43.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="33"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="19.899999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="28.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="32.299999999999997"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="14.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="12.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="11.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="25.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="35.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="10.9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="24.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="38.799999999999997"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="26.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="24.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+    <x v="1"/>
+    <n v="38"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="76.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="93.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="85.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="77"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="79.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="77"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="85.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="80.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="80.400000000000006"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="67.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="61.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="92.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="63"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="68.900000000000006"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="83.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="79.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="55.9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="67"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="79.900000000000006"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="71.400000000000006"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="67.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="84.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="87.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="88.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="74.599999999999994"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="93.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="64.400000000000006"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="89"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="75.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="60.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="71.599999999999994"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="75.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="32"/>
+    <x v="1"/>
+    <n v="61.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="0.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="0.9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="0.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="0.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="0.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="0.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="0.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="0.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="0.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="1.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="32"/>
+    <x v="1"/>
+    <n v="0.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="31.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="11.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="20"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="28.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="27.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="29.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="23.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="24.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="28"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="41"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="50.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="12.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="46.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="39.700000000000003"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="25.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="27.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="42.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="28.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="40.200000000000003"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="39.700000000000003"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="23.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="15.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="35.799999999999997"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="12.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="49.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="20.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="32.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="49.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="37.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="32.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+    <x v="1"/>
+    <n v="47.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="67.900000000000006"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="88.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="80"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="71"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="72.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="70.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="76.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="75.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="71.900000000000006"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="58.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="49.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="87.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="52.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="60.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="74.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="72.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="44.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="57.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="71.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="59.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="60.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="75.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="81.900000000000006"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="84.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="64.099999999999994"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="87.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="50.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="79"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="67.400000000000006"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="50.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="61.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="67.099999999999994"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="32"/>
+    <x v="1"/>
+    <n v="52.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="0.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="0.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="0.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="0.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="1"/>
+    <n v="0.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="0.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="1"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="28"/>
+    <x v="1"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="29"/>
+    <x v="1"/>
+    <n v="0.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="1"/>
+    <n v="0.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="1"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="32"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="30.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="20.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="21.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="21.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="31.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="45.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="30.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="26.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="22.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="35.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="41.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="20.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="40.799999999999997"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="36.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="22.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="24.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="43.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="33.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="24.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="2"/>
+    <n v="33.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="2"/>
+    <n v="29"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="2"/>
+    <n v="35.700000000000003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="22.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="2"/>
+    <n v="12"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="2"/>
+    <n v="36.200000000000003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="2"/>
+    <n v="25.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="36.200000000000003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="19.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="2"/>
+    <n v="33.299999999999997"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="2"/>
+    <n v="44.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="43"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="28"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="31.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="68.900000000000006"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="79.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="78.599999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="77.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="67.599999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="53.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="69.599999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="72.599999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="76.900000000000006"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="63.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="57.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="79.099999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="57.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="63.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="77.400000000000006"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="75.099999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="55.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="66"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="75.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="2"/>
+    <n v="66.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="2"/>
+    <n v="70"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="2"/>
+    <n v="63.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="77.599999999999994"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="2"/>
+    <n v="87.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="2"/>
+    <n v="63.7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="25"/>
+    <x v="2"/>
+    <n v="74.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="63.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="80.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="2"/>
+    <n v="65.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="2"/>
+    <n v="55"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="55.8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="71.900000000000006"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="67.900000000000006"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="1.1000000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1.1000000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="0.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="0.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="1.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="0.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="1.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="0.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="0.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="2"/>
+    <n v="1.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+    <x v="2"/>
+    <n v="0.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="28"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="29"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="1.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="0.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="25.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="16.399999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="17.899999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="16.600000000000001"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="25.9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="38.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="24.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="22.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="18.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="29.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="34.700000000000003"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="17.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="35.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="31.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="17.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="19.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="37.299999999999997"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="29.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="19.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="2"/>
+    <n v="28.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="2"/>
+    <n v="24.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="2"/>
+    <n v="29.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="19.100000000000001"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="2"/>
+    <n v="9.9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="2"/>
+    <n v="29.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="2"/>
+    <n v="19.399999999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="29.9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="16.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="2"/>
+    <n v="27.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="2"/>
+    <n v="38.700000000000003"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="36.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="22.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="25.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="74"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="83.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="81.900000000000006"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="82.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="72.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="60.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="75.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="76.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="68.599999999999994"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="64.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="82.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="62.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="68"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="82.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="80.599999999999994"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="62.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="70.400000000000006"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="80.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="2"/>
+    <n v="71.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="2"/>
+    <n v="74.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="2"/>
+    <n v="68.900000000000006"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="80.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="2"/>
+    <n v="89.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="2"/>
+    <n v="70.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="25"/>
+    <x v="2"/>
+    <n v="80.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="69.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="83.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="2"/>
+    <n v="71.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="2"/>
+    <n v="60.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="61.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="77.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="73.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="1.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="0.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="1.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="1.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="0.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="2"/>
+    <n v="1.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="2"/>
+    <n v="1.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+    <x v="2"/>
+    <n v="0.4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="0.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="28"/>
+    <x v="2"/>
+    <n v="1.2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="29"/>
+    <x v="2"/>
+    <n v="0.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="1.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="0.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="35.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="23.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="24.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="25.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="36.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="52.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="35.700000000000003"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="30.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="26.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="40"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="48.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="24.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="45.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="40.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="27"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="29.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="50.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="37.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="29"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="2"/>
+    <n v="38.700000000000003"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="2"/>
+    <n v="33.200000000000003"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="2"/>
+    <n v="41.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="25.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="2"/>
+    <n v="14.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="24"/>
+    <x v="2"/>
+    <n v="42.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="2"/>
+    <n v="30.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="42.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="21.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="28"/>
+    <x v="2"/>
+    <n v="39.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="2"/>
+    <n v="49.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="49"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="33.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="37"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="64.099999999999994"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="76.099999999999994"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="75.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="73.400000000000006"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="62.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="47.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="64.099999999999994"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="69.099999999999994"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="73.099999999999994"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="59.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="51.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="75.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="52.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="59.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="73"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="70"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="49.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="62"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="70.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="2"/>
+    <n v="61.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="2"/>
+    <n v="65.900000000000006"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="2"/>
+    <n v="58"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="74.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="2"/>
+    <n v="85.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="2"/>
+    <n v="57.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="25"/>
+    <x v="2"/>
+    <n v="69.099999999999994"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="57.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="78.099999999999994"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="2"/>
+    <n v="60.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="29"/>
+    <x v="2"/>
+    <n v="49.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="50.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="66.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="62.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="0.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="1.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+    <x v="2"/>
+    <n v="0.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="24"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="25"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="28"/>
+    <x v="2"/>
+    <n v="0.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="29"/>
+    <x v="2"/>
+    <n v="0.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="30"/>
+    <x v="2"/>
+    <n v="0.8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <x v="2"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="32"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="33"/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3667693A-3312-46CB-A6F0-C12CDDD6679C}" name="TablaDinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A4:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="35">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="4" item="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Suma de Porcentaje" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,7 +7179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView topLeftCell="AD20" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="AK7" sqref="AK7:AK39"/>
     </sheetView>
   </sheetViews>
@@ -4665,11 +11217,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F69FB1-9370-4C19-9A5D-4B2C7696090B}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="16">
+        <v>8.1999999999999975</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2243.8000000000002</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1047.8</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3299.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="16">
+        <v>8.1</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2377.9999999999995</v>
+      </c>
+      <c r="D7" s="16">
+        <v>913.9</v>
+      </c>
+      <c r="E7" s="16">
+        <v>3299.9999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="15">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="16">
+        <v>16.7</v>
+      </c>
+      <c r="C8" s="16">
+        <v>2280.5999999999995</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1003</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3300.2999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="16">
+        <v>33</v>
+      </c>
+      <c r="C9" s="16">
+        <v>6902.3999999999987</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2964.7</v>
+      </c>
+      <c r="E9" s="16">
+        <v>9900.0999999999985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B555687C-4581-4E48-B386-D745AF3FE0A6}">
   <dimension ref="A1:E892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="J864" sqref="J864"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
